--- a/WebService/Data/PriceTags.xlsx
+++ b/WebService/Data/PriceTags.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="PriceTags.xlsx" sheetId="1" r:id="rId1"/>
+    <sheet name="PriceTags" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>

--- a/WebService/Data/PriceTags.xlsx
+++ b/WebService/Data/PriceTags.xlsx
@@ -12,15 +12,57 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="0" uniqueCount="0"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+  <si>
+    <t>Идентификатор</t>
+  </si>
+  <si>
+    <t>Наименование</t>
+  </si>
+  <si>
+    <t>дарницкий</t>
+  </si>
+  <si>
+    <t>Производитель</t>
+  </si>
+  <si>
+    <t>хз3</t>
+  </si>
+  <si>
+    <t>Цена</t>
+  </si>
+  <si>
+    <t>2,50</t>
+  </si>
+  <si>
+    <t>молоко2</t>
+  </si>
+  <si>
+    <t>игра</t>
+  </si>
+  <si>
+    <t>2,60</t>
+  </si>
+  <si>
+    <t>молоко3</t>
+  </si>
+  <si>
+    <t>2,40</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="24"/>
       <name val="Calibri"/>
     </font>
   </fonts>
@@ -44,8 +86,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" applyProtection="1"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" applyFont="1" applyProtection="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -54,13 +99,211 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2381250" cy="952500"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" descr="" name="25012e7d-690f-4267-b11f-721a4fdd5b72"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2381250" cy="952500"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" descr="" name="877d51d2-a908-453b-a033-0b8d9707c147"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2381250" cy="952500"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" descr="" name="b8a8f59e-b449-42b1-820f-e1f453b44bf0"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="xr">
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="15.170694351196289" customWidth="1"/>
+    <col min="2" max="2" width="10.89121150970459" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="75" customHeight="1">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" ht="75" customHeight="1">
+      <c r="A6" s="0" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" ht="75" customHeight="1">
+      <c r="A11" s="0" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
   <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/WebService/Data/PriceTags.xlsx
+++ b/WebService/Data/PriceTags.xlsx
@@ -105,19 +105,19 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2381250" cy="952500"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" descr="" name="25012e7d-690f-4267-b11f-721a4fdd5b72"/>
+        <xdr:cNvPr id="5" descr="" name="25012e7d-690f-4267-b11f-721a4fdd5b72"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId91" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -138,19 +138,19 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2381250" cy="952500"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" descr="" name="877d51d2-a908-453b-a033-0b8d9707c147"/>
+        <xdr:cNvPr id="6" descr="" name="877d51d2-a908-453b-a033-0b8d9707c147"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId92" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -171,19 +171,19 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2381250" cy="952500"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" descr="" name="b8a8f59e-b449-42b1-820f-e1f453b44bf0"/>
+        <xdr:cNvPr id="7" descr="" name="b8a8f59e-b449-42b1-820f-e1f453b44bf0"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId93" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -212,7 +212,7 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="15.170694351196289" customWidth="1"/>
-    <col min="2" max="2" width="10.89121150970459" customWidth="1"/>
+    <col min="2" max="2" width="37" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="75" customHeight="1">

--- a/WebService/Data/PriceTags.xlsx
+++ b/WebService/Data/PriceTags.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Идентификатор</t>
   </si>
@@ -20,34 +20,64 @@
     <t>Наименование</t>
   </si>
   <si>
+    <t>пшеничный</t>
+  </si>
+  <si>
+    <t>Производитель</t>
+  </si>
+  <si>
+    <t>хлебозавод5</t>
+  </si>
+  <si>
+    <t>Цена, руб.</t>
+  </si>
+  <si>
+    <t>2,40</t>
+  </si>
+  <si>
     <t>дарницкий</t>
   </si>
   <si>
-    <t>Производитель</t>
+    <t>хлебозавод</t>
+  </si>
+  <si>
+    <t>2,45</t>
   </si>
   <si>
     <t>хз3</t>
   </si>
   <si>
-    <t>Цена</t>
-  </si>
-  <si>
     <t>2,50</t>
   </si>
   <si>
+    <t>молоко25</t>
+  </si>
+  <si>
+    <t>игра</t>
+  </si>
+  <si>
+    <t>2,65</t>
+  </si>
+  <si>
+    <t>молоко3</t>
+  </si>
+  <si>
+    <t>2,67</t>
+  </si>
+  <si>
     <t>молоко2</t>
   </si>
   <si>
-    <t>игра</t>
-  </si>
-  <si>
-    <t>2,60</t>
-  </si>
-  <si>
-    <t>молоко3</t>
-  </si>
-  <si>
-    <t>2,40</t>
+    <t>2,87</t>
+  </si>
+  <si>
+    <t>хлеб бородинский</t>
+  </si>
+  <si>
+    <t>пекарня 2</t>
+  </si>
+  <si>
+    <t>3,60</t>
   </si>
 </sst>
 </file>
@@ -111,13 +141,13 @@
     <xdr:ext cx="2381250" cy="952500"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" descr="" name="25012e7d-690f-4267-b11f-721a4fdd5b72"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId91" cstate="print"/>
+        <xdr:cNvPr id="7" descr="" name="dea29528-56f1-4a7f-8b56-7b8181f17631"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId245" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -144,13 +174,13 @@
     <xdr:ext cx="2381250" cy="952500"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" descr="" name="877d51d2-a908-453b-a033-0b8d9707c147"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId92" cstate="print"/>
+        <xdr:cNvPr id="8" descr="" name="5b6b9f87-e03d-4c54-b70b-1b5ed93741e8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId246" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -177,13 +207,145 @@
     <xdr:ext cx="2381250" cy="952500"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" descr="" name="b8a8f59e-b449-42b1-820f-e1f453b44bf0"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId93" cstate="print"/>
+        <xdr:cNvPr id="9" descr="" name="25012e7d-690f-4267-b11f-721a4fdd5b72"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId247" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2381250" cy="952500"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" descr="" name="363cf529-fd05-45e6-a7a4-b975283442e4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId248" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2381250" cy="952500"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" descr="" name="282c56e0-0aee-4a5c-b968-8a20e3cabe51"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId249" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2381250" cy="952500"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" descr="" name="66d19dfc-4832-4de8-bc08-aaf3cf5a061c"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId250" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2381250" cy="952500"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" descr="" name="9cbcc0fb-d1c0-47e1-8049-4e8f925d6d4a"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId251" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -205,7 +367,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="xr">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B34"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -283,7 +445,7 @@
         <v>1</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13">
@@ -291,7 +453,7 @@
         <v>3</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14">
@@ -300,6 +462,122 @@
       </c>
       <c r="B14" s="1" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="16" ht="75" customHeight="1">
+      <c r="A16" s="0" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" ht="75" customHeight="1">
+      <c r="A21" s="0" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" ht="75" customHeight="1">
+      <c r="A26" s="0" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31" ht="75" customHeight="1">
+      <c r="A31" s="0" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B32" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="B33" s="0" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/WebService/Data/PriceTags.xlsx
+++ b/WebService/Data/PriceTags.xlsx
@@ -41,7 +41,7 @@
     <t>хлебозавод</t>
   </si>
   <si>
-    <t>2,45</t>
+    <t>2,43</t>
   </si>
   <si>
     <t>хз3</t>
@@ -62,7 +62,7 @@
     <t>молоко3</t>
   </si>
   <si>
-    <t>2,67</t>
+    <t>2,66</t>
   </si>
   <si>
     <t>молоко2</t>
@@ -141,13 +141,13 @@
     <xdr:ext cx="2381250" cy="952500"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" descr="" name="dea29528-56f1-4a7f-8b56-7b8181f17631"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId245" cstate="print"/>
+        <xdr:cNvPr id="9" descr="" name="dea29528-56f1-4a7f-8b56-7b8181f17631"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId287" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -174,13 +174,13 @@
     <xdr:ext cx="2381250" cy="952500"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="8" descr="" name="5b6b9f87-e03d-4c54-b70b-1b5ed93741e8"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId246" cstate="print"/>
+        <xdr:cNvPr id="10" descr="" name="5b6b9f87-e03d-4c54-b70b-1b5ed93741e8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId288" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -207,13 +207,13 @@
     <xdr:ext cx="2381250" cy="952500"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="9" descr="" name="25012e7d-690f-4267-b11f-721a4fdd5b72"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId247" cstate="print"/>
+        <xdr:cNvPr id="11" descr="" name="25012e7d-690f-4267-b11f-721a4fdd5b72"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId289" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -240,13 +240,13 @@
     <xdr:ext cx="2381250" cy="952500"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="10" descr="" name="363cf529-fd05-45e6-a7a4-b975283442e4"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId248" cstate="print"/>
+        <xdr:cNvPr id="12" descr="" name="363cf529-fd05-45e6-a7a4-b975283442e4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId290" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -273,13 +273,13 @@
     <xdr:ext cx="2381250" cy="952500"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="11" descr="" name="282c56e0-0aee-4a5c-b968-8a20e3cabe51"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId249" cstate="print"/>
+        <xdr:cNvPr id="13" descr="" name="282c56e0-0aee-4a5c-b968-8a20e3cabe51"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId291" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -306,13 +306,13 @@
     <xdr:ext cx="2381250" cy="952500"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="12" descr="" name="66d19dfc-4832-4de8-bc08-aaf3cf5a061c"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId250" cstate="print"/>
+        <xdr:cNvPr id="14" descr="" name="66d19dfc-4832-4de8-bc08-aaf3cf5a061c"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId292" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -339,13 +339,13 @@
     <xdr:ext cx="2381250" cy="952500"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="13" descr="" name="9cbcc0fb-d1c0-47e1-8049-4e8f925d6d4a"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId251" cstate="print"/>
+        <xdr:cNvPr id="15" descr="" name="9cbcc0fb-d1c0-47e1-8049-4e8f925d6d4a"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId293" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>

--- a/WebService/Data/PriceTags.xlsx
+++ b/WebService/Data/PriceTags.xlsx
@@ -20,55 +20,55 @@
     <t>Наименование</t>
   </si>
   <si>
+    <t>дарницкий</t>
+  </si>
+  <si>
+    <t>Производитель</t>
+  </si>
+  <si>
+    <t>хлебозавод</t>
+  </si>
+  <si>
+    <t>Цена, руб.</t>
+  </si>
+  <si>
+    <t>2,43</t>
+  </si>
+  <si>
+    <t>хз3</t>
+  </si>
+  <si>
+    <t>2,50</t>
+  </si>
+  <si>
+    <t>молоко2</t>
+  </si>
+  <si>
+    <t>игра</t>
+  </si>
+  <si>
+    <t>2,87</t>
+  </si>
+  <si>
+    <t>молоко3</t>
+  </si>
+  <si>
+    <t>2,66</t>
+  </si>
+  <si>
+    <t>молоко25</t>
+  </si>
+  <si>
+    <t>2,65</t>
+  </si>
+  <si>
     <t>пшеничный</t>
   </si>
   <si>
-    <t>Производитель</t>
-  </si>
-  <si>
     <t>хлебозавод5</t>
   </si>
   <si>
-    <t>Цена, руб.</t>
-  </si>
-  <si>
     <t>2,40</t>
-  </si>
-  <si>
-    <t>дарницкий</t>
-  </si>
-  <si>
-    <t>хлебозавод</t>
-  </si>
-  <si>
-    <t>2,43</t>
-  </si>
-  <si>
-    <t>хз3</t>
-  </si>
-  <si>
-    <t>2,50</t>
-  </si>
-  <si>
-    <t>молоко25</t>
-  </si>
-  <si>
-    <t>игра</t>
-  </si>
-  <si>
-    <t>2,65</t>
-  </si>
-  <si>
-    <t>молоко3</t>
-  </si>
-  <si>
-    <t>2,66</t>
-  </si>
-  <si>
-    <t>молоко2</t>
-  </si>
-  <si>
-    <t>2,87</t>
   </si>
   <si>
     <t>хлеб бородинский</t>
@@ -141,13 +141,13 @@
     <xdr:ext cx="2381250" cy="952500"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="9" descr="" name="dea29528-56f1-4a7f-8b56-7b8181f17631"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId287" cstate="print"/>
+        <xdr:cNvPr id="9" descr="" name="5b6b9f87-e03d-4c54-b70b-1b5ed93741e8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId336" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -174,13 +174,13 @@
     <xdr:ext cx="2381250" cy="952500"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="10" descr="" name="5b6b9f87-e03d-4c54-b70b-1b5ed93741e8"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId288" cstate="print"/>
+        <xdr:cNvPr id="10" descr="" name="25012e7d-690f-4267-b11f-721a4fdd5b72"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId337" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -207,13 +207,13 @@
     <xdr:ext cx="2381250" cy="952500"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="11" descr="" name="25012e7d-690f-4267-b11f-721a4fdd5b72"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId289" cstate="print"/>
+        <xdr:cNvPr id="11" descr="" name="66d19dfc-4832-4de8-bc08-aaf3cf5a061c"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId338" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -240,13 +240,13 @@
     <xdr:ext cx="2381250" cy="952500"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="12" descr="" name="363cf529-fd05-45e6-a7a4-b975283442e4"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId290" cstate="print"/>
+        <xdr:cNvPr id="12" descr="" name="282c56e0-0aee-4a5c-b968-8a20e3cabe51"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId339" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -273,13 +273,13 @@
     <xdr:ext cx="2381250" cy="952500"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="13" descr="" name="282c56e0-0aee-4a5c-b968-8a20e3cabe51"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId291" cstate="print"/>
+        <xdr:cNvPr id="13" descr="" name="363cf529-fd05-45e6-a7a4-b975283442e4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId340" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -306,13 +306,13 @@
     <xdr:ext cx="2381250" cy="952500"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="14" descr="" name="66d19dfc-4832-4de8-bc08-aaf3cf5a061c"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId292" cstate="print"/>
+        <xdr:cNvPr id="14" descr="" name="dea29528-56f1-4a7f-8b56-7b8181f17631"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId341" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -345,7 +345,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId293" cstate="print"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId342" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -416,7 +416,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
@@ -424,7 +424,7 @@
         <v>3</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9">
@@ -432,7 +432,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" ht="75" customHeight="1">
@@ -445,7 +445,7 @@
         <v>1</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13">
@@ -482,7 +482,7 @@
         <v>3</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19">
@@ -490,7 +490,7 @@
         <v>5</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21" ht="75" customHeight="1">
@@ -503,7 +503,7 @@
         <v>1</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23">
@@ -511,7 +511,7 @@
         <v>3</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24">
@@ -519,7 +519,7 @@
         <v>5</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="26" ht="75" customHeight="1">
@@ -532,7 +532,7 @@
         <v>1</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28">
@@ -540,7 +540,7 @@
         <v>3</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="29">

--- a/WebService/Data/PriceTags.xlsx
+++ b/WebService/Data/PriceTags.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Идентификатор</t>
   </si>
@@ -20,18 +20,27 @@
     <t>Наименование</t>
   </si>
   <si>
+    <t>пшеничный</t>
+  </si>
+  <si>
+    <t>Производитель</t>
+  </si>
+  <si>
+    <t>хлебозавод5</t>
+  </si>
+  <si>
+    <t>Цена, руб.</t>
+  </si>
+  <si>
+    <t>2,40</t>
+  </si>
+  <si>
     <t>дарницкий</t>
   </si>
   <si>
-    <t>Производитель</t>
-  </si>
-  <si>
     <t>хлебозавод</t>
   </si>
   <si>
-    <t>Цена, руб.</t>
-  </si>
-  <si>
     <t>2,43</t>
   </si>
   <si>
@@ -41,36 +50,27 @@
     <t>2,50</t>
   </si>
   <si>
+    <t>молоко25</t>
+  </si>
+  <si>
+    <t>игра</t>
+  </si>
+  <si>
+    <t>2,65</t>
+  </si>
+  <si>
+    <t>молоко3</t>
+  </si>
+  <si>
+    <t>2,66</t>
+  </si>
+  <si>
     <t>молоко2</t>
   </si>
   <si>
-    <t>игра</t>
-  </si>
-  <si>
     <t>2,87</t>
   </si>
   <si>
-    <t>молоко3</t>
-  </si>
-  <si>
-    <t>2,66</t>
-  </si>
-  <si>
-    <t>молоко25</t>
-  </si>
-  <si>
-    <t>2,65</t>
-  </si>
-  <si>
-    <t>пшеничный</t>
-  </si>
-  <si>
-    <t>хлебозавод5</t>
-  </si>
-  <si>
-    <t>2,40</t>
-  </si>
-  <si>
     <t>хлеб бородинский</t>
   </si>
   <si>
@@ -78,6 +78,15 @@
   </si>
   <si>
     <t>3,60</t>
+  </si>
+  <si>
+    <t>селедка</t>
+  </si>
+  <si>
+    <t>балтика</t>
+  </si>
+  <si>
+    <t>10,00</t>
   </si>
 </sst>
 </file>
@@ -141,13 +150,13 @@
     <xdr:ext cx="2381250" cy="952500"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="9" descr="" name="5b6b9f87-e03d-4c54-b70b-1b5ed93741e8"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId336" cstate="print"/>
+        <xdr:cNvPr id="9" descr="" name="dea29528-56f1-4a7f-8b56-7b8181f17631"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId392" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -174,13 +183,13 @@
     <xdr:ext cx="2381250" cy="952500"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="10" descr="" name="25012e7d-690f-4267-b11f-721a4fdd5b72"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId337" cstate="print"/>
+        <xdr:cNvPr id="10" descr="" name="5b6b9f87-e03d-4c54-b70b-1b5ed93741e8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId393" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -207,13 +216,13 @@
     <xdr:ext cx="2381250" cy="952500"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="11" descr="" name="66d19dfc-4832-4de8-bc08-aaf3cf5a061c"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId338" cstate="print"/>
+        <xdr:cNvPr id="11" descr="" name="25012e7d-690f-4267-b11f-721a4fdd5b72"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId394" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -240,13 +249,13 @@
     <xdr:ext cx="2381250" cy="952500"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="12" descr="" name="282c56e0-0aee-4a5c-b968-8a20e3cabe51"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId339" cstate="print"/>
+        <xdr:cNvPr id="12" descr="" name="363cf529-fd05-45e6-a7a4-b975283442e4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId395" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -273,13 +282,13 @@
     <xdr:ext cx="2381250" cy="952500"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="13" descr="" name="363cf529-fd05-45e6-a7a4-b975283442e4"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId340" cstate="print"/>
+        <xdr:cNvPr id="13" descr="" name="282c56e0-0aee-4a5c-b968-8a20e3cabe51"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId396" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -306,13 +315,13 @@
     <xdr:ext cx="2381250" cy="952500"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="14" descr="" name="dea29528-56f1-4a7f-8b56-7b8181f17631"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId341" cstate="print"/>
+        <xdr:cNvPr id="14" descr="" name="66d19dfc-4832-4de8-bc08-aaf3cf5a061c"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId397" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -345,7 +354,40 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId342" cstate="print"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId398" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2381250" cy="952500"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" descr="" name="8c758fcc-2675-4b8b-be43-c494c7501cb8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId399" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -367,7 +409,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="xr">
-  <dimension ref="A1:B34"/>
+  <dimension ref="A1:B39"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -416,7 +458,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8">
@@ -424,7 +466,7 @@
         <v>3</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9">
@@ -432,7 +474,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" ht="75" customHeight="1">
@@ -445,7 +487,7 @@
         <v>1</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13">
@@ -482,7 +524,7 @@
         <v>3</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19">
@@ -490,7 +532,7 @@
         <v>5</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21" ht="75" customHeight="1">
@@ -503,7 +545,7 @@
         <v>1</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23">
@@ -511,7 +553,7 @@
         <v>3</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24">
@@ -519,7 +561,7 @@
         <v>5</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" ht="75" customHeight="1">
@@ -532,7 +574,7 @@
         <v>1</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="28">
@@ -540,7 +582,7 @@
         <v>3</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="29">
@@ -578,6 +620,35 @@
       </c>
       <c r="B34" s="1" t="s">
         <v>21</v>
+      </c>
+    </row>
+    <row r="36" ht="75" customHeight="1">
+      <c r="A36" s="0" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="B37" s="0" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="B38" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/WebService/Data/PriceTags.xlsx
+++ b/WebService/Data/PriceTags.xlsx
@@ -156,7 +156,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId392" cstate="print"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId440" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -189,7 +189,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId393" cstate="print"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId441" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -222,7 +222,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId394" cstate="print"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId442" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -255,7 +255,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId395" cstate="print"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId443" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -288,7 +288,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId396" cstate="print"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId444" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -321,7 +321,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId397" cstate="print"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId445" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -354,7 +354,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId398" cstate="print"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId446" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -387,7 +387,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId399" cstate="print"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId447" cstate="print"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
